--- a/BalanceSheet/POOL_bal.xlsx
+++ b/BalanceSheet/POOL_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-200185000.0</v>
+        <v>977000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-142214000.0</v>
+        <v>781000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>24568000.0</v>
+        <v>613000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>232055000.0</v>
+        <v>628000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-156856000.0</v>
+        <v>858000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>702274000.0</v>
@@ -1906,19 +1906,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>369665000.0</v>
+        <v>635000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-12597000.0</v>
+        <v>267000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-80805000.0</v>
+        <v>268000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-172684000.0</v>
+        <v>346000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>256874000.0</v>
+        <v>518000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>261963000.0</v>
@@ -2745,7 +2745,7 @@
         <v>31000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-2542000.0</v>
+        <v>28000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>29000000.0</v>
